--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1937,21 +1937,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1976,22 +1976,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2006,42 +2006,42 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and manually return to home</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2066,12 +2066,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2096,52 +2096,52 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>12-19</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2156,12 +2156,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2186,50 +2186,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>19</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Please fly with caution</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1937,21 +1937,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1976,22 +1976,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and manually return to home</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2006,42 +2006,42 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2066,12 +2066,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2096,52 +2096,52 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>12-19</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2156,12 +2156,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2186,20 +2186,50 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>Weak GPS signal</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>19</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>Please fly with caution</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>10-13</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
